--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rlne_sum-raw-ss-lookup-tabbed.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rlne_sum-raw-ss-lookup-tabbed.xlsx
@@ -12,7 +12,10 @@
     <sheet name="5.8-5.11" sheetId="3" r:id="rId3"/>
     <sheet name="6.0-6.5" sheetId="4" r:id="rId4"/>
     <sheet name="6.6-6.11" sheetId="5" r:id="rId5"/>
-    <sheet name="7.0-9.3" sheetId="6" r:id="rId6"/>
+    <sheet name="7.0-7.5" sheetId="6" r:id="rId6"/>
+    <sheet name="7.6-7.11" sheetId="7" r:id="rId7"/>
+    <sheet name="8.0-8.5" sheetId="8" r:id="rId8"/>
+    <sheet name="8.6-9.3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -356,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1318,6 +1321,22 @@
         <v>130</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1325,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2287,6 +2306,22 @@
         <v>130</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2294,7 +2329,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3256,6 +3291,22 @@
         <v>130</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3263,7 +3314,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4225,6 +4276,22 @@
         <v>130</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4232,7 +4299,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5194,6 +5261,22 @@
         <v>130</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5201,7 +5284,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5224,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -5232,7 +5315,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -5240,7 +5323,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -5248,7 +5331,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -5256,7 +5339,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -5264,7 +5347,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -5272,7 +5355,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -5280,7 +5363,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -5288,7 +5371,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -5296,7 +5379,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -5304,7 +5387,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -5312,7 +5395,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -5320,7 +5403,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -5328,7 +5411,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
@@ -5336,7 +5419,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
@@ -5344,7 +5427,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -5352,7 +5435,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -5360,7 +5443,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
@@ -5368,7 +5451,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -5376,7 +5459,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -5384,7 +5467,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
@@ -5392,7 +5475,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
@@ -5400,7 +5483,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -5408,7 +5491,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -5416,7 +5499,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
@@ -5424,7 +5507,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
@@ -5432,7 +5515,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
@@ -5440,7 +5523,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
@@ -5448,7 +5531,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
@@ -5456,7 +5539,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
@@ -5464,7 +5547,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
@@ -5472,7 +5555,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
@@ -5480,7 +5563,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
@@ -5488,7 +5571,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
@@ -5496,7 +5579,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
@@ -5504,7 +5587,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
@@ -5512,7 +5595,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
@@ -5520,7 +5603,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
@@ -5528,7 +5611,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -5536,7 +5619,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
@@ -5544,7 +5627,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
@@ -5552,7 +5635,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
@@ -5560,7 +5643,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45">
@@ -5568,7 +5651,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
@@ -5576,7 +5659,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
@@ -5584,7 +5667,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
@@ -5592,7 +5675,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49">
@@ -5600,7 +5683,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50">
@@ -5608,7 +5691,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51">
@@ -5616,7 +5699,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52">
@@ -5624,7 +5707,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53">
@@ -5632,7 +5715,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54">
@@ -5640,7 +5723,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
@@ -5648,7 +5731,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56">
@@ -5656,7 +5739,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57">
@@ -5664,7 +5747,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58">
@@ -5672,7 +5755,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59">
@@ -5680,7 +5763,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60">
@@ -5688,7 +5771,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61">
@@ -5696,7 +5779,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62">
@@ -5704,7 +5787,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63">
@@ -5712,7 +5795,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64">
@@ -5720,7 +5803,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65">
@@ -5728,7 +5811,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66">
@@ -5736,7 +5819,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67">
@@ -5744,7 +5827,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68">
@@ -5752,7 +5835,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69">
@@ -5760,7 +5843,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70">
@@ -5768,7 +5851,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71">
@@ -5776,7 +5859,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72">
@@ -5784,7 +5867,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73">
@@ -5792,7 +5875,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74">
@@ -5800,7 +5883,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75">
@@ -5808,7 +5891,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76">
@@ -5816,7 +5899,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77">
@@ -5824,7 +5907,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78">
@@ -5832,7 +5915,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79">
@@ -5840,7 +5923,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80">
@@ -5848,7 +5931,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81">
@@ -5856,7 +5939,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82">
@@ -5864,7 +5947,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83">
@@ -5872,7 +5955,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84">
@@ -5880,7 +5963,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85">
@@ -5888,7 +5971,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86">
@@ -5896,7 +5979,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87">
@@ -5904,7 +5987,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88">
@@ -5912,7 +5995,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89">
@@ -5920,7 +6003,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90">
@@ -5928,7 +6011,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91">
@@ -5936,7 +6019,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92">
@@ -5944,7 +6027,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93">
@@ -5952,7 +6035,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94">
@@ -5960,7 +6043,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95">
@@ -5968,7 +6051,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96">
@@ -5976,7 +6059,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97">
@@ -5984,7 +6067,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98">
@@ -5992,7 +6075,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99">
@@ -6000,7 +6083,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100">
@@ -6008,7 +6091,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101">
@@ -6016,7 +6099,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102">
@@ -6024,7 +6107,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103">
@@ -6032,7 +6115,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104">
@@ -6040,7 +6123,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105">
@@ -6048,7 +6131,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106">
@@ -6056,7 +6139,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107">
@@ -6064,7 +6147,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108">
@@ -6072,7 +6155,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109">
@@ -6161,6 +6244,2977 @@
       </c>
       <c r="B119">
         <v>130</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rlne_sum-raw-ss-lookup-tabbed.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/rlne_sum-raw-ss-lookup-tabbed.xlsx
@@ -382,7 +382,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -390,7 +390,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -398,7 +398,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -414,7 +414,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -422,7 +422,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -430,7 +430,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -438,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -446,7 +446,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -454,7 +454,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -462,7 +462,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -470,7 +470,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -478,7 +478,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -486,7 +486,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -494,7 +494,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -502,7 +502,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -510,7 +510,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -518,7 +518,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -534,7 +534,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
@@ -542,7 +542,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -558,7 +558,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -566,7 +566,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -574,7 +574,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
@@ -582,7 +582,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
@@ -590,7 +590,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
@@ -598,7 +598,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
@@ -606,7 +606,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
@@ -614,7 +614,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32">
@@ -622,7 +622,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
@@ -630,7 +630,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
@@ -638,7 +638,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -646,7 +646,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -654,7 +654,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
@@ -662,7 +662,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
@@ -670,7 +670,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
@@ -678,7 +678,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
@@ -686,7 +686,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
@@ -694,7 +694,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
@@ -702,7 +702,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43">
@@ -710,7 +710,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44">
@@ -718,7 +718,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45">
@@ -726,7 +726,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">
@@ -734,7 +734,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
@@ -742,7 +742,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48">
@@ -750,7 +750,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49">
@@ -758,7 +758,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50">
@@ -766,7 +766,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51">
@@ -774,7 +774,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52">
@@ -782,7 +782,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53">
@@ -790,7 +790,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54">
@@ -798,7 +798,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55">
@@ -806,7 +806,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56">
@@ -814,7 +814,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57">
@@ -822,7 +822,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58">
@@ -830,7 +830,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59">
@@ -838,7 +838,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60">
@@ -846,7 +846,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61">
@@ -854,7 +854,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62">
@@ -862,7 +862,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63">
@@ -870,7 +870,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64">
@@ -878,7 +878,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65">
@@ -886,7 +886,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66">
@@ -894,7 +894,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67">
@@ -902,7 +902,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68">
@@ -910,7 +910,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69">
@@ -918,7 +918,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70">
@@ -926,7 +926,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71">
@@ -934,7 +934,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72">
@@ -942,7 +942,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73">
@@ -950,7 +950,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74">
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -1375,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1383,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1391,7 +1391,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -1399,7 +1399,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -1407,7 +1407,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -1415,7 +1415,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1423,7 +1423,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -1431,7 +1431,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -1439,7 +1439,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -1447,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -1455,7 +1455,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -1463,7 +1463,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -1471,7 +1471,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -1479,7 +1479,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -1487,7 +1487,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -1495,7 +1495,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -1503,7 +1503,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
@@ -1511,7 +1511,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -1519,7 +1519,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -1527,7 +1527,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -1535,7 +1535,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
@@ -1583,7 +1583,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
@@ -1591,7 +1591,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31">
@@ -1599,7 +1599,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
@@ -1631,7 +1631,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
@@ -1639,7 +1639,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
@@ -1647,7 +1647,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
@@ -1655,7 +1655,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39">
@@ -1663,7 +1663,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -1671,7 +1671,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41">
@@ -1679,7 +1679,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42">
@@ -1687,7 +1687,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43">
@@ -1695,7 +1695,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
@@ -1703,7 +1703,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
@@ -1711,7 +1711,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
@@ -1719,7 +1719,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
@@ -1727,7 +1727,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48">
@@ -1735,7 +1735,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49">
@@ -1743,7 +1743,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50">
@@ -1751,7 +1751,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51">
@@ -1759,7 +1759,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52">
@@ -1767,7 +1767,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53">
@@ -1775,7 +1775,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54">
@@ -1783,7 +1783,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55">
@@ -1791,7 +1791,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
@@ -1799,7 +1799,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57">
@@ -1807,7 +1807,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58">
@@ -1815,7 +1815,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59">
@@ -1823,7 +1823,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60">
@@ -1831,7 +1831,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61">
@@ -1839,7 +1839,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62">
@@ -1847,7 +1847,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63">
@@ -1855,7 +1855,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64">
@@ -1863,7 +1863,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65">
@@ -1871,7 +1871,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66">
@@ -1879,7 +1879,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67">
@@ -1887,7 +1887,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68">
@@ -1895,7 +1895,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69">
@@ -1903,7 +1903,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70">
@@ -1911,7 +1911,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71">
@@ -1919,7 +1919,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72">
@@ -1927,7 +1927,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73">
@@ -1935,7 +1935,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74">
@@ -1943,7 +1943,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75">
@@ -1951,7 +1951,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76">
@@ -1959,7 +1959,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77">
@@ -1967,7 +1967,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78">
@@ -1975,7 +1975,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79">
@@ -2352,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -2360,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -2368,7 +2368,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -2376,7 +2376,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -2384,7 +2384,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -2392,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -2400,7 +2400,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -2408,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -2416,7 +2416,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -2424,7 +2424,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -2432,7 +2432,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -2440,7 +2440,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -2448,7 +2448,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -2456,7 +2456,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -2464,7 +2464,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -2472,7 +2472,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -2480,7 +2480,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -2488,7 +2488,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
@@ -2496,7 +2496,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -2504,7 +2504,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -2512,7 +2512,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
@@ -2520,7 +2520,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -2560,7 +2560,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -2608,7 +2608,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
@@ -2648,7 +2648,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40">
@@ -2656,7 +2656,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41">
@@ -2688,7 +2688,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
@@ -2696,7 +2696,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46">
@@ -2704,7 +2704,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47">
@@ -2728,7 +2728,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
@@ -2736,7 +2736,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51">
@@ -2744,7 +2744,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52">
@@ -2768,7 +2768,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55">
@@ -2776,7 +2776,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
@@ -2784,7 +2784,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57">
@@ -2808,7 +2808,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60">
@@ -2816,7 +2816,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61">
@@ -2824,7 +2824,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62">
@@ -2832,7 +2832,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63">
@@ -2856,7 +2856,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66">
@@ -2864,7 +2864,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67">
@@ -2872,7 +2872,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68">
@@ -2904,7 +2904,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72">
@@ -2912,7 +2912,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73">
@@ -2920,7 +2920,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74">
@@ -2960,7 +2960,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79">
@@ -2968,7 +2968,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80">
@@ -2976,7 +2976,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81">
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -3345,7 +3345,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -3353,7 +3353,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -3361,7 +3361,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -3369,7 +3369,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -3377,7 +3377,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -3385,7 +3385,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -3393,7 +3393,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -3401,7 +3401,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -3409,7 +3409,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -3417,7 +3417,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -3425,7 +3425,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -3433,7 +3433,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -3441,7 +3441,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -3449,7 +3449,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -3457,7 +3457,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
@@ -3473,7 +3473,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
@@ -3481,7 +3481,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -3489,7 +3489,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -3513,7 +3513,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -3521,7 +3521,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -3553,7 +3553,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
@@ -3625,7 +3625,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
@@ -3657,7 +3657,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
@@ -3761,7 +3761,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
@@ -3865,7 +3865,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69">
@@ -3905,7 +3905,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74">
@@ -3913,7 +3913,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75">
@@ -3937,7 +3937,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78">
@@ -3945,7 +3945,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79">
@@ -3953,7 +3953,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
@@ -3961,7 +3961,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81">
@@ -3985,7 +3985,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84">
@@ -3993,7 +3993,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85">
@@ -4001,7 +4001,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86">
@@ -4009,7 +4009,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87">
@@ -4017,7 +4017,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88">
@@ -4033,7 +4033,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90">
@@ -4041,7 +4041,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91">
@@ -4049,7 +4049,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92">
@@ -4322,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -4330,7 +4330,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -4338,7 +4338,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -4346,7 +4346,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -4354,7 +4354,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -4362,7 +4362,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -4370,7 +4370,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -4378,7 +4378,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -4386,7 +4386,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -4394,7 +4394,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -4402,7 +4402,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -4410,7 +4410,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -4418,7 +4418,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
@@ -4442,7 +4442,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -4450,7 +4450,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -4506,7 +4506,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
@@ -4562,7 +4562,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -4594,7 +4594,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
@@ -4618,7 +4618,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
@@ -4642,7 +4642,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
@@ -4650,7 +4650,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
@@ -4674,7 +4674,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
@@ -4730,7 +4730,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54">
@@ -4786,7 +4786,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61">
@@ -4818,7 +4818,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65">
@@ -4842,7 +4842,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68">
@@ -4850,7 +4850,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69">
@@ -4874,7 +4874,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72">
@@ -4882,7 +4882,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73">
@@ -4906,7 +4906,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76">
@@ -4914,7 +4914,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77">
@@ -4922,7 +4922,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78">
@@ -4938,7 +4938,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80">
@@ -4946,7 +4946,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81">
@@ -4954,7 +4954,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
@@ -4962,7 +4962,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83">
@@ -4970,7 +4970,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84">
@@ -4978,7 +4978,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85">
@@ -4986,7 +4986,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86">
@@ -4994,7 +4994,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
@@ -5002,7 +5002,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88">
@@ -5010,7 +5010,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89">
@@ -5018,7 +5018,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90">
@@ -5026,7 +5026,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91">
@@ -5034,7 +5034,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92">
@@ -5042,7 +5042,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93">
@@ -5050,7 +5050,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94">
@@ -5058,7 +5058,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95">
@@ -5066,7 +5066,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96">
@@ -5074,7 +5074,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97">
@@ -5082,7 +5082,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98">
@@ -5090,7 +5090,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99">
@@ -5098,7 +5098,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100">
@@ -5307,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -5315,7 +5315,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -5323,7 +5323,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -5347,7 +5347,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -5403,7 +5403,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -5427,7 +5427,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -5451,7 +5451,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
@@ -5459,7 +5459,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
@@ -5467,7 +5467,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
@@ -5475,7 +5475,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -5483,7 +5483,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -5491,7 +5491,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
@@ -5499,7 +5499,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -5507,7 +5507,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
@@ -5515,7 +5515,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
@@ -5523,7 +5523,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
@@ -5531,7 +5531,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
@@ -5539,7 +5539,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
@@ -5547,7 +5547,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
@@ -5555,7 +5555,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
@@ -5563,7 +5563,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -5571,7 +5571,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
@@ -5579,7 +5579,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
@@ -5587,7 +5587,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
@@ -5595,7 +5595,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
@@ -5603,7 +5603,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
@@ -5611,7 +5611,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
@@ -5619,7 +5619,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
@@ -5627,7 +5627,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
@@ -5635,7 +5635,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
@@ -5643,7 +5643,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
@@ -5651,7 +5651,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46">
@@ -5659,7 +5659,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
@@ -5667,7 +5667,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
@@ -5675,7 +5675,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
@@ -5683,7 +5683,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
@@ -5691,7 +5691,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51">
@@ -5699,7 +5699,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52">
@@ -5715,7 +5715,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54">
@@ -5723,7 +5723,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55">
@@ -5739,7 +5739,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57">
@@ -5763,7 +5763,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60">
@@ -5787,7 +5787,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63">
@@ -5843,7 +5843,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70">
@@ -5899,7 +5899,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77">
@@ -5923,7 +5923,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80">
@@ -5931,7 +5931,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81">
@@ -5939,7 +5939,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82">
@@ -5955,7 +5955,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84">
@@ -5963,7 +5963,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85">
@@ -5971,7 +5971,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86">
@@ -5979,7 +5979,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87">
@@ -5987,7 +5987,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88">
@@ -5995,7 +5995,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89">
@@ -6003,7 +6003,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90">
@@ -6011,7 +6011,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91">
@@ -6019,7 +6019,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92">
@@ -6027,7 +6027,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93">
@@ -6035,7 +6035,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94">
@@ -6043,7 +6043,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95">
@@ -6051,7 +6051,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96">
@@ -6059,7 +6059,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97">
@@ -6067,7 +6067,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98">
@@ -6075,7 +6075,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99">
@@ -6083,7 +6083,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100">
@@ -6091,7 +6091,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101">
@@ -6099,7 +6099,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102">
@@ -6107,7 +6107,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103">
@@ -6115,7 +6115,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104">
@@ -6123,7 +6123,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105">
@@ -6131,7 +6131,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106">
@@ -6292,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -6300,7 +6300,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -6316,7 +6316,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -6324,7 +6324,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -6332,7 +6332,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -6340,7 +6340,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -6348,7 +6348,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -6356,7 +6356,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -6364,7 +6364,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -6372,7 +6372,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -6380,7 +6380,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -6388,7 +6388,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
@@ -6396,7 +6396,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -6404,7 +6404,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -6412,7 +6412,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -6420,7 +6420,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
@@ -6428,7 +6428,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
@@ -6436,7 +6436,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -6444,7 +6444,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -6452,7 +6452,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
@@ -6460,7 +6460,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
@@ -6468,7 +6468,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
@@ -6476,7 +6476,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -6484,7 +6484,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
@@ -6492,7 +6492,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -6500,7 +6500,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -6508,7 +6508,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6516,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31">
@@ -6524,7 +6524,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
@@ -6532,7 +6532,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -6540,7 +6540,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34">
@@ -6548,7 +6548,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35">
@@ -6556,7 +6556,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36">
@@ -6564,7 +6564,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
@@ -6572,7 +6572,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
@@ -6580,7 +6580,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39">
@@ -6588,7 +6588,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
@@ -6596,7 +6596,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
@@ -6604,7 +6604,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
@@ -6612,7 +6612,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
@@ -6620,7 +6620,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
@@ -6628,7 +6628,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
@@ -6636,7 +6636,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
@@ -6644,7 +6644,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
@@ -6652,7 +6652,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
@@ -6660,7 +6660,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
@@ -6668,7 +6668,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
@@ -6676,7 +6676,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
@@ -6684,7 +6684,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
@@ -6692,7 +6692,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
@@ -6700,7 +6700,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54">
@@ -6708,7 +6708,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
@@ -6716,7 +6716,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
@@ -6724,7 +6724,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
@@ -6732,7 +6732,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58">
@@ -6740,7 +6740,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59">
@@ -6748,7 +6748,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60">
@@ -6756,7 +6756,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61">
@@ -6764,7 +6764,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62">
@@ -6772,7 +6772,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63">
@@ -6780,7 +6780,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
@@ -6788,7 +6788,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65">
@@ -6796,7 +6796,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66">
@@ -6804,7 +6804,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67">
@@ -6812,7 +6812,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68">
@@ -6820,7 +6820,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69">
@@ -6828,7 +6828,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70">
@@ -6844,7 +6844,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72">
@@ -6852,7 +6852,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73">
@@ -6868,7 +6868,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75">
@@ -6876,7 +6876,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76">
@@ -6900,7 +6900,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79">
@@ -6932,7 +6932,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83">
@@ -6964,7 +6964,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87">
@@ -7004,7 +7004,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92">
@@ -7052,7 +7052,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98">
@@ -7060,7 +7060,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99">
@@ -7068,7 +7068,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100">
@@ -7076,7 +7076,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101">
@@ -7084,7 +7084,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102">
@@ -7092,7 +7092,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103">
@@ -7100,7 +7100,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104">
@@ -7148,7 +7148,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110">
@@ -7277,7 +7277,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -7285,7 +7285,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -7293,7 +7293,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -7301,7 +7301,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -7309,7 +7309,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -7317,7 +7317,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -7325,7 +7325,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -7333,7 +7333,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -7341,7 +7341,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -7349,7 +7349,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -7357,7 +7357,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -7365,7 +7365,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -7373,7 +7373,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -7381,7 +7381,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
@@ -7389,7 +7389,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -7397,7 +7397,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
@@ -7405,7 +7405,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -7413,7 +7413,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -7421,7 +7421,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -7429,7 +7429,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -7437,7 +7437,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -7445,7 +7445,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -7453,7 +7453,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
@@ -7461,7 +7461,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
@@ -7469,7 +7469,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -7477,7 +7477,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
@@ -7485,7 +7485,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -7493,7 +7493,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30">
@@ -7501,7 +7501,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
@@ -7509,7 +7509,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32">
@@ -7517,7 +7517,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33">
@@ -7525,7 +7525,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
@@ -7533,7 +7533,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35">
@@ -7541,7 +7541,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36">
@@ -7549,7 +7549,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37">
@@ -7557,7 +7557,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
@@ -7565,7 +7565,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -7573,7 +7573,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
@@ -7581,7 +7581,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41">
@@ -7589,7 +7589,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42">
@@ -7597,7 +7597,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43">
@@ -7605,7 +7605,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
@@ -7613,7 +7613,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
@@ -7621,7 +7621,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
@@ -7629,7 +7629,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
@@ -7637,7 +7637,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
@@ -7645,7 +7645,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
@@ -7653,7 +7653,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
@@ -7661,7 +7661,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
@@ -7669,7 +7669,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -7677,7 +7677,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
@@ -7685,7 +7685,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
@@ -7693,7 +7693,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
@@ -7701,7 +7701,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
@@ -7709,7 +7709,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
@@ -7717,7 +7717,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
@@ -7725,7 +7725,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
@@ -7733,7 +7733,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60">
@@ -7741,7 +7741,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61">
@@ -7749,7 +7749,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62">
@@ -7757,7 +7757,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63">
@@ -7765,7 +7765,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64">
@@ -7773,7 +7773,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65">
@@ -7781,7 +7781,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
@@ -7789,7 +7789,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67">
@@ -7797,7 +7797,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68">
@@ -7805,7 +7805,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69">
@@ -7813,7 +7813,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70">
@@ -7821,7 +7821,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
@@ -7829,7 +7829,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
@@ -7837,7 +7837,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73">
@@ -7845,7 +7845,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74">
@@ -7853,7 +7853,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75">
@@ -7861,7 +7861,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76">
@@ -7869,7 +7869,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77">
@@ -7877,7 +7877,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78">
@@ -7885,7 +7885,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79">
@@ -7893,7 +7893,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80">
@@ -7901,7 +7901,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81">
@@ -7909,7 +7909,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82">
@@ -7917,7 +7917,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83">
@@ -7925,7 +7925,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84">
@@ -7933,7 +7933,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85">
@@ -7941,7 +7941,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86">
@@ -7949,7 +7949,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87">
@@ -7957,7 +7957,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88">
@@ -7965,7 +7965,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89">
@@ -7973,7 +7973,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90">
@@ -7981,7 +7981,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91">
@@ -7989,7 +7989,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92">
@@ -7997,7 +7997,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93">
@@ -8005,7 +8005,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94">
@@ -8013,7 +8013,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95">
@@ -8021,7 +8021,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96">
@@ -8029,7 +8029,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97">
@@ -8037,7 +8037,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98">
@@ -8045,7 +8045,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99">
@@ -8053,7 +8053,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100">
@@ -8061,7 +8061,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101">
@@ -8069,7 +8069,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102">
@@ -8077,7 +8077,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103">
@@ -8085,7 +8085,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104">
@@ -8093,7 +8093,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105">
@@ -8101,7 +8101,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106">
@@ -8109,7 +8109,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107">
@@ -8117,7 +8117,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108">
@@ -8125,7 +8125,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109">
@@ -8133,7 +8133,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110">
@@ -8141,7 +8141,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111">
@@ -8149,7 +8149,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112">
@@ -8157,7 +8157,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113">
@@ -8262,7 +8262,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -8270,7 +8270,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -8278,7 +8278,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -8286,7 +8286,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -8294,7 +8294,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -8302,7 +8302,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -8310,7 +8310,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -8318,7 +8318,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -8326,7 +8326,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -8334,7 +8334,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -8342,7 +8342,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -8350,7 +8350,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -8358,7 +8358,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
@@ -8366,7 +8366,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
@@ -8374,7 +8374,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -8382,7 +8382,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
@@ -8390,7 +8390,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
@@ -8398,7 +8398,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -8406,7 +8406,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -8414,7 +8414,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
@@ -8422,7 +8422,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23">
@@ -8430,7 +8430,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -8438,7 +8438,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -8446,7 +8446,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26">
@@ -8454,7 +8454,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
@@ -8462,7 +8462,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -8470,7 +8470,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
@@ -8478,7 +8478,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -8486,7 +8486,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -8494,7 +8494,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
@@ -8502,7 +8502,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33">
@@ -8510,7 +8510,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34">
@@ -8518,7 +8518,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35">
@@ -8526,7 +8526,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36">
@@ -8534,7 +8534,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37">
@@ -8542,7 +8542,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38">
@@ -8550,7 +8550,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39">
@@ -8558,7 +8558,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40">
@@ -8566,7 +8566,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41">
@@ -8574,7 +8574,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42">
@@ -8582,7 +8582,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43">
@@ -8590,7 +8590,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44">
@@ -8598,7 +8598,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45">
@@ -8606,7 +8606,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46">
@@ -8614,7 +8614,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47">
@@ -8622,7 +8622,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48">
@@ -8630,7 +8630,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49">
@@ -8638,7 +8638,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50">
@@ -8646,7 +8646,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51">
@@ -8654,7 +8654,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52">
@@ -8662,7 +8662,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53">
@@ -8670,7 +8670,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54">
@@ -8678,7 +8678,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
@@ -8686,7 +8686,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
@@ -8694,7 +8694,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57">
@@ -8702,7 +8702,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58">
@@ -8710,7 +8710,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59">
@@ -8718,7 +8718,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60">
@@ -8726,7 +8726,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61">
@@ -8734,7 +8734,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62">
@@ -8742,7 +8742,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
@@ -8750,7 +8750,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
@@ -8758,7 +8758,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65">
@@ -8766,7 +8766,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
@@ -8774,7 +8774,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67">
@@ -8782,7 +8782,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68">
@@ -8790,7 +8790,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69">
@@ -8798,7 +8798,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70">
@@ -8806,7 +8806,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71">
@@ -8814,7 +8814,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72">
@@ -8822,7 +8822,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73">
@@ -8830,7 +8830,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74">
@@ -8838,7 +8838,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75">
@@ -8846,7 +8846,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76">
@@ -8854,7 +8854,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77">
@@ -8862,7 +8862,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78">
@@ -8870,7 +8870,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79">
@@ -8878,7 +8878,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80">
@@ -8886,7 +8886,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81">
@@ -8894,7 +8894,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82">
@@ -8902,7 +8902,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83">
@@ -8910,7 +8910,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84">
@@ -8918,7 +8918,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85">
@@ -8926,7 +8926,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86">
@@ -8934,7 +8934,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87">
@@ -8942,7 +8942,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88">
@@ -8950,7 +8950,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89">
@@ -8958,7 +8958,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90">
@@ -8966,7 +8966,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91">
@@ -8974,7 +8974,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92">
@@ -8982,7 +8982,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93">
@@ -8990,7 +8990,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94">
@@ -8998,7 +8998,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95">
@@ -9006,7 +9006,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
@@ -9014,7 +9014,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97">
@@ -9022,7 +9022,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98">
@@ -9030,7 +9030,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99">
@@ -9038,7 +9038,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100">
@@ -9046,7 +9046,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101">
@@ -9054,7 +9054,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102">
@@ -9062,7 +9062,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103">
@@ -9070,7 +9070,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104">
@@ -9078,7 +9078,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105">
@@ -9086,7 +9086,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
@@ -9094,7 +9094,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107">
@@ -9102,7 +9102,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108">
@@ -9110,7 +9110,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109">
@@ -9118,7 +9118,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110">
@@ -9126,7 +9126,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111">
@@ -9134,7 +9134,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112">
@@ -9142,7 +9142,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113">
@@ -9150,7 +9150,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114">
@@ -9158,7 +9158,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115">
@@ -9166,7 +9166,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116">
@@ -9174,7 +9174,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117">
@@ -9182,7 +9182,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118">
@@ -9190,7 +9190,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119">
@@ -9198,7 +9198,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120">
@@ -9206,7 +9206,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121">
@@ -9214,7 +9214,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
